--- a/outputs-HGR-r202/g__Ruminococcus_F.xlsx
+++ b/outputs-HGR-r202/g__Ruminococcus_F.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,7 +464,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12759.fa</t>
+          <t>even_MAG-GUT10417.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -487,7 +487,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13038.fa</t>
+          <t>even_MAG-GUT12759.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -510,7 +510,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT16496.fa</t>
+          <t>even_MAG-GUT13038.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -533,7 +533,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17488.fa</t>
+          <t>even_MAG-GUT16496.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -556,7 +556,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18812.fa</t>
+          <t>even_MAG-GUT17488.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -579,7 +579,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19680.fa</t>
+          <t>even_MAG-GUT18812.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -602,7 +602,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT20578.fa</t>
+          <t>even_MAG-GUT19680.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -625,7 +625,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25077.fa</t>
+          <t>even_MAG-GUT20578.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -648,7 +648,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37942.fa</t>
+          <t>even_MAG-GUT22878.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -671,7 +671,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38145.fa</t>
+          <t>even_MAG-GUT25077.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -694,7 +694,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT41528.fa</t>
+          <t>even_MAG-GUT36027.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -717,7 +717,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42710.fa</t>
+          <t>even_MAG-GUT37942.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -740,7 +740,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5430.fa</t>
+          <t>even_MAG-GUT38145.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -763,7 +763,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56791.fa</t>
+          <t>even_MAG-GUT40857.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -786,7 +786,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57687.fa</t>
+          <t>even_MAG-GUT41528.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -809,7 +809,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57739.fa</t>
+          <t>even_MAG-GUT42584.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -832,7 +832,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT58303.fa</t>
+          <t>even_MAG-GUT42710.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -855,7 +855,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT58949.fa</t>
+          <t>even_MAG-GUT52094.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -878,7 +878,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59166.fa</t>
+          <t>even_MAG-GUT52107.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -901,7 +901,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59980.fa</t>
+          <t>even_MAG-GUT52138.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -924,7 +924,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61230.fa</t>
+          <t>even_MAG-GUT5430.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -947,7 +947,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61940.fa</t>
+          <t>even_MAG-GUT56791.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -970,7 +970,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81205.fa</t>
+          <t>even_MAG-GUT57687.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -993,7 +993,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81226.fa</t>
+          <t>even_MAG-GUT57739.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1016,7 +1016,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81308.fa</t>
+          <t>even_MAG-GUT58303.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1039,7 +1039,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81578.fa</t>
+          <t>even_MAG-GUT58949.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1062,7 +1062,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81784.fa</t>
+          <t>even_MAG-GUT59166.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1085,7 +1085,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT84793.fa</t>
+          <t>even_MAG-GUT59980.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1108,21 +1108,343 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT61159.fa</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_F champanellensis</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_F champanellensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT61230.fa</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_F champanellensis</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_F champanellensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT61940.fa</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_F champanellensis</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_F champanellensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT61959.fa</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_F champanellensis</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_F champanellensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT70200.fa</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_F champanellensis</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_F champanellensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT77982.fa</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_F champanellensis</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_F champanellensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT78879.fa</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_F champanellensis</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_F champanellensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT78908.fa</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_F champanellensis</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_F champanellensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT81205.fa</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_F champanellensis</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_F champanellensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT81226.fa</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_F champanellensis</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_F champanellensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT81308.fa</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_F champanellensis</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_F champanellensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT81578.fa</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_F champanellensis</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_F champanellensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT81784.fa</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_F champanellensis</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_F champanellensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT84793.fa</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_F champanellensis</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_F champanellensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT88359.fa</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_F champanellensis</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_F champanellensis</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
         <is>
           <t>s__Ruminococcus_F champanellensis</t>
         </is>
